--- a/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_0_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620967.266541657</v>
+        <v>1620447.995941154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6471651.343166674</v>
+        <v>6471651.34316668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729603</v>
+        <v>340528.8729729604</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -674,7 +674,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.609591400577</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>390.1527797502169</v>
+        <v>316.066491344201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>13.11773985127026</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>170.4521047352164</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.7809612378184</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6545501648086</v>
+        <v>179.8191686421735</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>27.91646057541422</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>107.4874378891605</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>165.0943221801024</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>65.75847023087881</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1187,10 +1187,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>22.57770224645794</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1294,22 +1294,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1388,7 +1388,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I11" t="n">
-        <v>54.34255030734808</v>
+        <v>54.34255030734811</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.6770145813545</v>
       </c>
       <c r="C13" t="n">
-        <v>138.2367439651512</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1560122316142</v>
+        <v>128.1560122316143</v>
       </c>
       <c r="F13" t="n">
         <v>131.8391198817652</v>
@@ -1543,10 +1543,10 @@
         <v>134.4321924149625</v>
       </c>
       <c r="H13" t="n">
-        <v>116.9656858938484</v>
+        <v>37.22254755510142</v>
       </c>
       <c r="I13" t="n">
-        <v>84.03689068796763</v>
+        <v>84.03689068796766</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.27429639260486</v>
+        <v>53.27429639260489</v>
       </c>
       <c r="S13" t="n">
-        <v>153.3821556901393</v>
+        <v>153.3821556901394</v>
       </c>
       <c r="T13" t="n">
-        <v>206.0075568843154</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>248.8244712305876</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.0011928611238</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>245.1332730974649</v>
       </c>
       <c r="X13" t="n">
-        <v>171.8142988913064</v>
+        <v>204.814728770164</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.3426468763734</v>
+        <v>191.3426468763735</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I14" t="n">
-        <v>54.34255030734808</v>
+        <v>54.34255030734811</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.6770145813545</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>138.2367439651512</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1560122316142</v>
+        <v>103.4428654387597</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.118430542487426</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>84.03689068796766</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.3821556901394</v>
       </c>
       <c r="T16" t="n">
         <v>206.0075568843154</v>
@@ -1831,7 +1831,7 @@
         <v>204.814728770164</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.3426468763734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.9732731190951</v>
+        <v>374.9732731190952</v>
       </c>
       <c r="C17" t="n">
         <v>374.8776500311131</v>
@@ -1853,16 +1853,16 @@
         <v>379.0511185795228</v>
       </c>
       <c r="F17" t="n">
-        <v>385.6744131770998</v>
+        <v>385.6744131770999</v>
       </c>
       <c r="G17" t="n">
-        <v>373.4953065173466</v>
+        <v>373.4953065173467</v>
       </c>
       <c r="H17" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498098</v>
       </c>
       <c r="I17" t="n">
-        <v>54.34255030734808</v>
+        <v>54.34255030734816</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>102.7825697050907</v>
       </c>
       <c r="T17" t="n">
-        <v>188.8387244638603</v>
+        <v>188.8387244638604</v>
       </c>
       <c r="U17" t="n">
-        <v>223.3441920743355</v>
+        <v>223.3441920743356</v>
       </c>
       <c r="V17" t="n">
-        <v>315.1934843681346</v>
+        <v>315.1934843681347</v>
       </c>
       <c r="W17" t="n">
-        <v>348.7770031074336</v>
+        <v>348.7770031074337</v>
       </c>
       <c r="X17" t="n">
-        <v>365.4912691039875</v>
+        <v>365.4912691039876</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.7816115726413</v>
+        <v>365.7816115726414</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.83804108108627</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>138.2367439651512</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.7540034815697</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.1560122316143</v>
       </c>
       <c r="F19" t="n">
         <v>131.8391198817652</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.9656858938485</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.27429639260486</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.3821556901394</v>
       </c>
       <c r="T19" t="n">
-        <v>206.0075568843154</v>
+        <v>206.0075568843155</v>
       </c>
       <c r="U19" t="n">
-        <v>248.8244712305876</v>
+        <v>248.8244712305877</v>
       </c>
       <c r="V19" t="n">
-        <v>240.0011928611238</v>
+        <v>240.0011928611239</v>
       </c>
       <c r="W19" t="n">
-        <v>245.1332730974649</v>
+        <v>245.133273097465</v>
       </c>
       <c r="X19" t="n">
-        <v>204.814728770164</v>
+        <v>23.01185582305524</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.3426468763734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I20" t="n">
-        <v>54.34255030734802</v>
+        <v>54.34255030734805</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>188.8387244638602</v>
       </c>
       <c r="U20" t="n">
-        <v>223.3441920743354</v>
+        <v>223.3441920743355</v>
       </c>
       <c r="V20" t="n">
         <v>315.1934843681346</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.4791359312248</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>134.4321924149625</v>
@@ -2257,7 +2257,7 @@
         <v>116.9656858938484</v>
       </c>
       <c r="I22" t="n">
-        <v>84.03689068796756</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.2742963926048</v>
+        <v>53.27429639260482</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>206.0075568843154</v>
       </c>
       <c r="U22" t="n">
-        <v>248.8244712305875</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V22" t="n">
-        <v>240.0011928611237</v>
+        <v>64.60346093381075</v>
       </c>
       <c r="W22" t="n">
         <v>245.1332730974648</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.9732731190951</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C23" t="n">
-        <v>374.8776500311131</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D23" t="n">
-        <v>369.2735958591206</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E23" t="n">
-        <v>379.0511185795228</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F23" t="n">
         <v>385.6744131770998</v>
@@ -2336,7 +2336,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I23" t="n">
-        <v>54.34255030734808</v>
+        <v>54.34255030734805</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>102.7825697050907</v>
+        <v>102.7825697050906</v>
       </c>
       <c r="T23" t="n">
-        <v>188.8387244638603</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U23" t="n">
         <v>223.3441920743355</v>
@@ -2378,7 +2378,7 @@
         <v>315.1934843681346</v>
       </c>
       <c r="W23" t="n">
-        <v>348.7770031074332</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X23" t="n">
         <v>365.4912691039875</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.6770145813545</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.2367439651512</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>22.30847504843258</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F25" t="n">
-        <v>12.30875688025337</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H25" t="n">
         <v>116.9656858938484</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>84.03689068796758</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>53.27429639260482</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>206.0075568843154</v>
       </c>
       <c r="U25" t="n">
-        <v>248.8244712305876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>240.0011928611238</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W25" t="n">
-        <v>245.1332730974649</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X25" t="n">
-        <v>204.814728770164</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y25" t="n">
         <v>191.3426468763734</v>
@@ -2573,7 +2573,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>53.36691852307321</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>85.57955680815897</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -2767,10 +2767,10 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2807,10 +2807,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
         <v>224.990945096747</v>
@@ -2855,7 +2855,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.099744608985361</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.126332760954191</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3007,13 +3007,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753964</v>
+        <v>341.4355598753963</v>
       </c>
       <c r="C32" t="n">
-        <v>341.3399367874144</v>
+        <v>341.3399367874143</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>335.7358826154218</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>345.513405335824</v>
       </c>
       <c r="F32" t="n">
         <v>352.1366999334011</v>
       </c>
       <c r="G32" t="n">
-        <v>339.9575932736479</v>
+        <v>372.2488609092266</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364942</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>69.24485646139193</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3092,10 +3092,10 @@
         <v>315.2392898637349</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>331.9535558602888</v>
       </c>
       <c r="Y32" t="n">
-        <v>364.5351659645223</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376557</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214538</v>
+        <v>104.6990307214524</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787092</v>
+        <v>93.21629023787087</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791557</v>
+        <v>94.61829898791551</v>
       </c>
       <c r="F34" t="n">
-        <v>98.3014066380665</v>
+        <v>98.30140663806644</v>
       </c>
       <c r="G34" t="n">
-        <v>100.8944791712639</v>
+        <v>100.8944791712638</v>
       </c>
       <c r="H34" t="n">
-        <v>83.42797265014975</v>
+        <v>83.4279726501497</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426895</v>
+        <v>50.49917744427061</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890619</v>
+        <v>19.73658314890613</v>
       </c>
       <c r="S34" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464406</v>
       </c>
       <c r="T34" t="n">
-        <v>172.4698436406168</v>
+        <v>172.4698436406167</v>
       </c>
       <c r="U34" t="n">
         <v>215.2867579868889</v>
       </c>
       <c r="V34" t="n">
-        <v>206.4634796174251</v>
+        <v>206.463479617425</v>
       </c>
       <c r="W34" t="n">
-        <v>211.5955598537662</v>
+        <v>211.5955598537661</v>
       </c>
       <c r="X34" t="n">
-        <v>171.2770155264653</v>
+        <v>171.2770155264652</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.8049336326748</v>
+        <v>157.8049336326747</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>352.1366999334012</v>
       </c>
       <c r="G35" t="n">
-        <v>339.957593273648</v>
+        <v>339.9575932736481</v>
       </c>
       <c r="H35" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364947</v>
+        <v>20.80483706364949</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139205</v>
+        <v>69.24485646139206</v>
       </c>
       <c r="T35" t="n">
         <v>155.3010112201617</v>
@@ -3326,7 +3326,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W35" t="n">
-        <v>315.239289863735</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X35" t="n">
         <v>331.9535558602889</v>
@@ -3427,22 +3427,22 @@
         <v>104.6990307214526</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787098</v>
+        <v>93.21629023787099</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791562</v>
+        <v>94.61829898791564</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806655</v>
+        <v>98.30140663806657</v>
       </c>
       <c r="G37" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H37" t="n">
-        <v>83.42797265014981</v>
+        <v>83.42797265014983</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426901</v>
+        <v>50.49917744426902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890625</v>
+        <v>19.73658314890626</v>
       </c>
       <c r="S37" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464408</v>
       </c>
       <c r="T37" t="n">
         <v>172.4698436406168</v>
@@ -3484,10 +3484,10 @@
         <v>206.4634796174252</v>
       </c>
       <c r="W37" t="n">
-        <v>211.5955598537662</v>
+        <v>211.5955598537663</v>
       </c>
       <c r="X37" t="n">
-        <v>171.2770155264653</v>
+        <v>171.2770155264654</v>
       </c>
       <c r="Y37" t="n">
         <v>157.8049336326748</v>
@@ -3566,10 +3566,10 @@
         <v>315.2392898637349</v>
       </c>
       <c r="X38" t="n">
-        <v>331.95355586029</v>
+        <v>331.9535558602888</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.2438983289426</v>
+        <v>332.243898328944</v>
       </c>
     </row>
     <row r="39">
@@ -3758,7 +3758,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I41" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T41" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U41" t="n">
         <v>189.8064788306369</v>
@@ -3901,22 +3901,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D43" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E43" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F43" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G43" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H43" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I43" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S43" t="n">
         <v>119.8444424464407</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.4355598753964</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C44" t="n">
         <v>341.3399367874144</v>
@@ -3986,16 +3986,16 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F44" t="n">
-        <v>352.1366999334011</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G44" t="n">
-        <v>339.9575932736479</v>
+        <v>339.9575932736481</v>
       </c>
       <c r="H44" t="n">
-        <v>243.116004406111</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I44" t="n">
-        <v>20.80483706364942</v>
+        <v>20.80483706364949</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.24485646139199</v>
+        <v>69.24485646139206</v>
       </c>
       <c r="T44" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U44" t="n">
-        <v>189.8064788306368</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V44" t="n">
-        <v>281.6557711244359</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W44" t="n">
-        <v>315.2392898637349</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X44" t="n">
-        <v>331.9535558602888</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y44" t="n">
-        <v>332.2438983289426</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C46" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21629023787092</v>
+        <v>93.21629023787099</v>
       </c>
       <c r="E46" t="n">
-        <v>94.61829898791557</v>
+        <v>94.61829898791564</v>
       </c>
       <c r="F46" t="n">
-        <v>98.3014066380665</v>
+        <v>98.30140663806657</v>
       </c>
       <c r="G46" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H46" t="n">
-        <v>83.42797265014975</v>
+        <v>83.42797265014983</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426895</v>
+        <v>50.49917744426902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.73658314890619</v>
+        <v>19.73658314890626</v>
       </c>
       <c r="S46" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464408</v>
       </c>
       <c r="T46" t="n">
         <v>172.4698436406168</v>
       </c>
       <c r="U46" t="n">
-        <v>215.2867579868889</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V46" t="n">
-        <v>206.4634796174251</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W46" t="n">
-        <v>211.5955598537662</v>
+        <v>211.5955598537663</v>
       </c>
       <c r="X46" t="n">
-        <v>171.2770155264653</v>
+        <v>171.2770155264654</v>
       </c>
       <c r="Y46" t="n">
         <v>157.8049336326748</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.6061317805319</v>
+        <v>1235.171261210922</v>
       </c>
       <c r="C2" t="n">
-        <v>374.5219451342061</v>
+        <v>841.0775442915115</v>
       </c>
       <c r="D2" t="n">
-        <v>374.0984192676707</v>
+        <v>446.9838273721005</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7986078249715</v>
+        <v>52.89011045268948</v>
       </c>
       <c r="F2" t="n">
-        <v>346.8085998190631</v>
+        <v>35.9001024467811</v>
       </c>
       <c r="G2" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
         <v>31.21222238001735</v>
@@ -4328,22 +4328,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L2" t="n">
-        <v>1057.900197753201</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M2" t="n">
-        <v>1239.450112205576</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N2" t="n">
-        <v>1239.450112205576</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O2" t="n">
-        <v>1239.450112205576</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P2" t="n">
         <v>1239.450112205576</v>
@@ -4358,22 +4358,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>1130.718178987548</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>780.8806243240283</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W2" t="n">
-        <v>780.8806243240283</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X2" t="n">
-        <v>386.7869074046174</v>
+        <v>1241.352036835008</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.7869074046174</v>
+        <v>1241.352036835008</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4413,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M3" t="n">
-        <v>794.9558830015396</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N3" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O3" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P3" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
@@ -4443,13 +4443,13 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1082.678192166393</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>869.4450239027217</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="X3" t="n">
-        <v>869.4450239027217</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="Y3" t="n">
         <v>710.0430642665517</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.0514280040638</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C4" t="n">
-        <v>789.9580555657803</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D4" t="n">
         <v>789.9580555657803</v>
@@ -4525,13 +4525,13 @@
         <v>1560.611119000868</v>
       </c>
       <c r="W4" t="n">
-        <v>1387.094996538425</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X4" t="n">
-        <v>1148.751134398108</v>
+        <v>1532.981477686434</v>
       </c>
       <c r="Y4" t="n">
-        <v>1148.751134398108</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1084.181844424532</v>
+        <v>746.9743883410623</v>
       </c>
       <c r="C5" t="n">
-        <v>674.0572537378022</v>
+        <v>740.8902016947364</v>
       </c>
       <c r="D5" t="n">
         <v>559.2546778137531</v>
@@ -4556,61 +4556,61 @@
         <v>127.9244543247414</v>
       </c>
       <c r="G5" t="n">
-        <v>123.2365742579777</v>
+        <v>123.2365742579776</v>
       </c>
       <c r="H5" t="n">
-        <v>123.2365742579777</v>
+        <v>123.2365742579776</v>
       </c>
       <c r="I5" t="n">
-        <v>36.88481157505082</v>
+        <v>36.88481157505078</v>
       </c>
       <c r="J5" t="n">
-        <v>36.88481157505082</v>
+        <v>36.88481157505078</v>
       </c>
       <c r="K5" t="n">
-        <v>474.8919490287792</v>
+        <v>36.88481157505078</v>
       </c>
       <c r="L5" t="n">
-        <v>931.3414922700331</v>
+        <v>36.88481157505078</v>
       </c>
       <c r="M5" t="n">
-        <v>931.3414922700331</v>
+        <v>493.3343548163041</v>
       </c>
       <c r="N5" t="n">
-        <v>1387.791035511287</v>
+        <v>949.7838980575575</v>
       </c>
       <c r="O5" t="n">
-        <v>1844.240578752541</v>
+        <v>1406.233441298811</v>
       </c>
       <c r="P5" t="n">
-        <v>1844.240578752541</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="Q5" t="n">
-        <v>1844.240578752541</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="R5" t="n">
-        <v>1844.240578752541</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="S5" t="n">
-        <v>1844.240578752541</v>
+        <v>1708.95950354664</v>
       </c>
       <c r="T5" t="n">
-        <v>1844.240578752541</v>
+        <v>1486.753019493498</v>
       </c>
       <c r="U5" t="n">
-        <v>1844.240578752541</v>
+        <v>1486.753019493498</v>
       </c>
       <c r="V5" t="n">
-        <v>1494.403024089022</v>
+        <v>1136.915464829979</v>
       </c>
       <c r="W5" t="n">
-        <v>1494.403024089022</v>
+        <v>753.1551639651477</v>
       </c>
       <c r="X5" t="n">
-        <v>1494.403024089022</v>
+        <v>753.1551639651477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1494.403024089022</v>
+        <v>753.1551639651477</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581.7205822105309</v>
+        <v>715.7156534615851</v>
       </c>
       <c r="C6" t="n">
         <v>581.7205822105309</v>
@@ -4638,10 +4638,10 @@
         <v>128.3806159190946</v>
       </c>
       <c r="H6" t="n">
-        <v>57.63340295481065</v>
+        <v>57.63340295481061</v>
       </c>
       <c r="I6" t="n">
-        <v>36.88481157505082</v>
+        <v>36.88481157505078</v>
       </c>
       <c r="J6" t="n">
         <v>229.697669137684</v>
@@ -4650,46 +4650,46 @@
         <v>685.5039254029828</v>
       </c>
       <c r="L6" t="n">
-        <v>901.7819729074031</v>
+        <v>1141.953468644236</v>
       </c>
       <c r="M6" t="n">
-        <v>901.7819729074031</v>
+        <v>1598.40301188549</v>
       </c>
       <c r="N6" t="n">
-        <v>901.7819729074031</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="O6" t="n">
-        <v>1358.231516148657</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.681059389911</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="Q6" t="n">
-        <v>1814.681059389911</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="R6" t="n">
-        <v>1844.240578752541</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.25056886685</v>
+        <v>1844.240578752539</v>
       </c>
       <c r="T6" t="n">
-        <v>1576.908705053858</v>
+        <v>1816.042133726868</v>
       </c>
       <c r="U6" t="n">
-        <v>1379.557894192076</v>
+        <v>1618.691322865086</v>
       </c>
       <c r="V6" t="n">
-        <v>1270.984724607066</v>
+        <v>1404.97979585812</v>
       </c>
       <c r="W6" t="n">
-        <v>1057.751556343395</v>
+        <v>1191.746627594449</v>
       </c>
       <c r="X6" t="n">
-        <v>881.4255744822875</v>
+        <v>1015.420645733342</v>
       </c>
       <c r="Y6" t="n">
-        <v>722.0236148461175</v>
+        <v>856.0186860971718</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.88481157505082</v>
+        <v>795.6306447608138</v>
       </c>
       <c r="C7" t="n">
-        <v>36.88481157505082</v>
+        <v>795.6306447608138</v>
       </c>
       <c r="D7" t="n">
-        <v>36.88481157505082</v>
+        <v>795.6306447608138</v>
       </c>
       <c r="E7" t="n">
-        <v>36.88481157505082</v>
+        <v>634.7198296291333</v>
       </c>
       <c r="F7" t="n">
-        <v>36.88481157505082</v>
+        <v>470.0887037397246</v>
       </c>
       <c r="G7" t="n">
-        <v>36.88481157505082</v>
+        <v>302.8383126652679</v>
       </c>
       <c r="H7" t="n">
-        <v>36.88481157505082</v>
+        <v>153.2308574707246</v>
       </c>
       <c r="I7" t="n">
-        <v>36.88481157505082</v>
+        <v>36.88481157505078</v>
       </c>
       <c r="J7" t="n">
-        <v>50.96736098026134</v>
+        <v>50.9673609802613</v>
       </c>
       <c r="K7" t="n">
         <v>205.5196887024993</v>
@@ -4747,28 +4747,28 @@
         <v>1566.283708195901</v>
       </c>
       <c r="R7" t="n">
-        <v>1566.283708195901</v>
+        <v>1481.0109898713</v>
       </c>
       <c r="S7" t="n">
-        <v>1566.283708195901</v>
+        <v>1481.0109898713</v>
       </c>
       <c r="T7" t="n">
-        <v>1335.717929332082</v>
+        <v>1241.462250848002</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.919781878207</v>
+        <v>1241.462250848002</v>
       </c>
       <c r="V7" t="n">
-        <v>779.0340368177284</v>
+        <v>1241.462250848002</v>
       </c>
       <c r="W7" t="n">
-        <v>499.9643723266028</v>
+        <v>962.3925863568768</v>
       </c>
       <c r="X7" t="n">
-        <v>261.6205101862861</v>
+        <v>962.3925863568768</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.88481157505082</v>
+        <v>962.3925863568768</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.6022603407614</v>
+        <v>539.2455748491877</v>
       </c>
       <c r="C8" t="n">
-        <v>160.5180736944356</v>
+        <v>533.1613882028619</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0945478279002</v>
+        <v>532.7378623363264</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>522.4380508936272</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>505.4480428877188</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4805,16 +4805,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4835,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1707.960962376155</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1358.123407712636</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>974.3631068478041</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>573.7197090167567</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y8" t="n">
-        <v>172.7830359648468</v>
+        <v>545.4263504732731</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4993,19 +4993,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.795812864525</v>
+        <v>1949.795812864523</v>
       </c>
       <c r="D11" t="n">
-        <v>1576.792180683594</v>
+        <v>1576.792180683593</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F11" t="n">
-        <v>804.3421486061978</v>
+        <v>804.3421486061975</v>
       </c>
       <c r="G11" t="n">
-        <v>427.0741622250396</v>
+        <v>427.0741622250397</v>
       </c>
       <c r="H11" t="n">
         <v>147.6259625787672</v>
@@ -5054,34 +5054,34 @@
         <v>3127.170477641254</v>
       </c>
       <c r="O11" t="n">
-        <v>3745.850530688488</v>
+        <v>3770.801334058359</v>
       </c>
       <c r="P11" t="n">
-        <v>4275.007228607639</v>
+        <v>4299.95803197751</v>
       </c>
       <c r="Q11" t="n">
-        <v>4596.168235402931</v>
+        <v>4621.119038772802</v>
       </c>
       <c r="R11" t="n">
         <v>4636.724881092496</v>
       </c>
       <c r="S11" t="n">
-        <v>4532.904103612606</v>
+        <v>4532.904103612605</v>
       </c>
       <c r="T11" t="n">
-        <v>4342.157917285475</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.557723270995</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V11" t="n">
-        <v>3798.180466333485</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X11" t="n">
-        <v>3076.697363089625</v>
+        <v>3076.697363089624</v>
       </c>
       <c r="Y11" t="n">
         <v>2707.220987763724</v>
@@ -5127,19 +5127,19 @@
         <v>92.73449762184991</v>
       </c>
       <c r="M12" t="n">
-        <v>561.6085108148379</v>
+        <v>935.7115783164165</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.266602926456</v>
+        <v>1405.707083563826</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R12" t="n">
         <v>2139.22369347235</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>833.811916889839</v>
+        <v>613.6302175929724</v>
       </c>
       <c r="C13" t="n">
-        <v>694.1788421775652</v>
+        <v>613.6302175929724</v>
       </c>
       <c r="D13" t="n">
-        <v>694.1788421775652</v>
+        <v>613.6302175929724</v>
       </c>
       <c r="E13" t="n">
-        <v>564.7283247718942</v>
+        <v>484.1797001873014</v>
       </c>
       <c r="F13" t="n">
-        <v>431.557496608495</v>
+        <v>351.0088720239021</v>
       </c>
       <c r="G13" t="n">
-        <v>295.7674032600479</v>
+        <v>215.218778675455</v>
       </c>
       <c r="H13" t="n">
         <v>177.6202457915142</v>
@@ -5197,28 +5197,28 @@
         <v>92.73449762184991</v>
       </c>
       <c r="J13" t="n">
-        <v>137.6512848283224</v>
+        <v>137.6512848283223</v>
       </c>
       <c r="K13" t="n">
-        <v>323.0378503518224</v>
+        <v>323.0378503518222</v>
       </c>
       <c r="L13" t="n">
-        <v>613.769188433145</v>
+        <v>613.7691884331448</v>
       </c>
       <c r="M13" t="n">
-        <v>933.8674826749004</v>
+        <v>933.8674826749</v>
       </c>
       <c r="N13" t="n">
-        <v>1245.540502870413</v>
+        <v>1245.540502870412</v>
       </c>
       <c r="O13" t="n">
-        <v>1535.935350998149</v>
+        <v>1535.935350998148</v>
       </c>
       <c r="P13" t="n">
         <v>1772.445029049023</v>
       </c>
       <c r="Q13" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652795</v>
       </c>
       <c r="R13" t="n">
         <v>1814.994876054205</v>
@@ -5227,22 +5227,22 @@
         <v>1660.063405660125</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.974964362837</v>
+        <v>1660.063405660125</v>
       </c>
       <c r="U13" t="n">
-        <v>1200.63711463497</v>
+        <v>1660.063405660125</v>
       </c>
       <c r="V13" t="n">
-        <v>1200.63711463497</v>
+        <v>1417.637958325656</v>
       </c>
       <c r="W13" t="n">
-        <v>1200.63711463497</v>
+        <v>1170.02859156054</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.087317775065</v>
+        <v>963.1450271462329</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.811916889839</v>
+        <v>769.8696262610072</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.795812864525</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D14" t="n">
         <v>1576.792180683594</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F14" t="n">
-        <v>804.3421486061978</v>
+        <v>804.3421486061975</v>
       </c>
       <c r="G14" t="n">
-        <v>427.0741622250396</v>
+        <v>427.0741622250389</v>
       </c>
       <c r="H14" t="n">
         <v>147.6259625787672</v>
       </c>
       <c r="I14" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="J14" t="n">
-        <v>346.9199690896042</v>
+        <v>346.9199690896043</v>
       </c>
       <c r="K14" t="n">
         <v>885.0794701986438</v>
@@ -5297,10 +5297,10 @@
         <v>4299.95803197751</v>
       </c>
       <c r="Q14" t="n">
-        <v>4621.119038772802</v>
+        <v>4596.168235402932</v>
       </c>
       <c r="R14" t="n">
-        <v>4636.724881092496</v>
+        <v>4636.724881092497</v>
       </c>
       <c r="S14" t="n">
         <v>4532.904103612606</v>
@@ -5309,19 +5309,19 @@
         <v>4342.157917285474</v>
       </c>
       <c r="U14" t="n">
-        <v>4116.557723270995</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V14" t="n">
-        <v>3798.180466333485</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W14" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X14" t="n">
         <v>3076.697363089625</v>
       </c>
       <c r="Y14" t="n">
-        <v>2707.220987763725</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>184.2303019658937</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4830890016097</v>
+        <v>113.4830890016098</v>
       </c>
       <c r="I15" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="J15" t="n">
-        <v>92.73449762184991</v>
+        <v>285.5473551844832</v>
       </c>
       <c r="K15" t="n">
-        <v>548.5407538871486</v>
+        <v>741.353611449782</v>
       </c>
       <c r="L15" t="n">
-        <v>1209.628925806437</v>
+        <v>741.353611449782</v>
       </c>
       <c r="M15" t="n">
-        <v>1227.673336299837</v>
+        <v>741.353611449782</v>
       </c>
       <c r="N15" t="n">
-        <v>1227.673336299837</v>
+        <v>741.353611449782</v>
       </c>
       <c r="O15" t="n">
-        <v>1227.673336299837</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.379228788367</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R15" t="n">
         <v>2139.22369347235</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.9478175604889</v>
+        <v>557.531156719669</v>
       </c>
       <c r="C16" t="n">
-        <v>223.3147428482152</v>
+        <v>417.898082007395</v>
       </c>
       <c r="D16" t="n">
-        <v>223.3147428482152</v>
+        <v>417.898082007395</v>
       </c>
       <c r="E16" t="n">
-        <v>93.86422544254428</v>
+        <v>313.4103391399613</v>
       </c>
       <c r="F16" t="n">
-        <v>93.86422544254428</v>
+        <v>313.4103391399613</v>
       </c>
       <c r="G16" t="n">
-        <v>92.73449762184991</v>
+        <v>177.6202457915143</v>
       </c>
       <c r="H16" t="n">
-        <v>92.73449762184991</v>
+        <v>177.6202457915143</v>
       </c>
       <c r="I16" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="J16" t="n">
         <v>137.6512848283224</v>
       </c>
       <c r="K16" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L16" t="n">
-        <v>613.769188433145</v>
+        <v>613.7691884331449</v>
       </c>
       <c r="M16" t="n">
         <v>933.8674826749002</v>
@@ -5455,31 +5455,31 @@
         <v>1772.445029049023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652795</v>
       </c>
       <c r="R16" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652795</v>
       </c>
       <c r="S16" t="n">
-        <v>1868.807296652796</v>
+        <v>1713.875826258715</v>
       </c>
       <c r="T16" t="n">
-        <v>1660.718855355507</v>
+        <v>1505.787384961427</v>
       </c>
       <c r="U16" t="n">
-        <v>1409.381005627641</v>
+        <v>1254.449535233561</v>
       </c>
       <c r="V16" t="n">
-        <v>1166.955558293173</v>
+        <v>1012.024087899092</v>
       </c>
       <c r="W16" t="n">
-        <v>919.3461915280565</v>
+        <v>764.4147211339761</v>
       </c>
       <c r="X16" t="n">
-        <v>712.4626271137495</v>
+        <v>557.531156719669</v>
       </c>
       <c r="Y16" t="n">
-        <v>519.1872262285237</v>
+        <v>557.531156719669</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2328.460105825244</v>
+        <v>2328.460105825245</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.795812864524</v>
+        <v>1949.795812864525</v>
       </c>
       <c r="D17" t="n">
-        <v>1576.792180683594</v>
+        <v>1576.792180683595</v>
       </c>
       <c r="E17" t="n">
-        <v>1193.9122629265</v>
+        <v>1193.912262926501</v>
       </c>
       <c r="F17" t="n">
-        <v>804.3421486061975</v>
+        <v>804.3421486061982</v>
       </c>
       <c r="G17" t="n">
-        <v>427.0741622250396</v>
+        <v>427.0741622250397</v>
       </c>
       <c r="H17" t="n">
-        <v>147.6259625787672</v>
+        <v>147.6259625787673</v>
       </c>
       <c r="I17" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="J17" t="n">
-        <v>346.9199690896042</v>
+        <v>346.9199690896043</v>
       </c>
       <c r="K17" t="n">
         <v>885.0794701986438</v>
@@ -5537,13 +5537,13 @@
         <v>4621.119038772802</v>
       </c>
       <c r="R17" t="n">
-        <v>4636.724881092496</v>
+        <v>4636.724881092497</v>
       </c>
       <c r="S17" t="n">
-        <v>4532.904103612606</v>
+        <v>4532.904103612607</v>
       </c>
       <c r="T17" t="n">
-        <v>4342.157917285474</v>
+        <v>4342.157917285475</v>
       </c>
       <c r="U17" t="n">
         <v>4116.557723270995</v>
@@ -5558,7 +5558,7 @@
         <v>3076.697363089625</v>
       </c>
       <c r="Y17" t="n">
-        <v>2707.220987763724</v>
+        <v>2707.220987763725</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>184.2303019658937</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4830890016097</v>
+        <v>113.4830890016098</v>
       </c>
       <c r="I18" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="J18" t="n">
-        <v>285.5473551844831</v>
+        <v>285.5473551844832</v>
       </c>
       <c r="K18" t="n">
-        <v>741.3536114497819</v>
+        <v>741.353611449782</v>
       </c>
       <c r="L18" t="n">
         <v>1402.44178336907</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.51780098382</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.51780098382</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="O18" t="n">
-        <v>1577.51780098382</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="P18" t="n">
         <v>2139.22369347235</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365.538400497523</v>
+        <v>741.1704223228086</v>
       </c>
       <c r="C19" t="n">
-        <v>225.9053257852491</v>
+        <v>601.5373476105345</v>
       </c>
       <c r="D19" t="n">
-        <v>225.9053257852491</v>
+        <v>473.5030006594541</v>
       </c>
       <c r="E19" t="n">
-        <v>225.9053257852491</v>
+        <v>344.0524832537831</v>
       </c>
       <c r="F19" t="n">
-        <v>92.73449762184991</v>
+        <v>210.8816550903838</v>
       </c>
       <c r="G19" t="n">
-        <v>92.73449762184991</v>
+        <v>210.8816550903838</v>
       </c>
       <c r="H19" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="I19" t="n">
-        <v>92.73449762184991</v>
+        <v>92.73449762184994</v>
       </c>
       <c r="J19" t="n">
-        <v>137.6512848283223</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K19" t="n">
         <v>323.0378503518223</v>
       </c>
       <c r="L19" t="n">
-        <v>613.7691884331447</v>
+        <v>613.7691884331448</v>
       </c>
       <c r="M19" t="n">
         <v>933.8674826749</v>
@@ -5692,31 +5692,31 @@
         <v>1772.445029049023</v>
       </c>
       <c r="Q19" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652795</v>
       </c>
       <c r="R19" t="n">
-        <v>1814.994876054205</v>
+        <v>1868.807296652795</v>
       </c>
       <c r="S19" t="n">
-        <v>1814.994876054205</v>
+        <v>1713.875826258715</v>
       </c>
       <c r="T19" t="n">
-        <v>1606.906434756917</v>
+        <v>1505.787384961427</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.568585029051</v>
+        <v>1254.44953523356</v>
       </c>
       <c r="V19" t="n">
-        <v>1113.143137694582</v>
+        <v>1012.024087899092</v>
       </c>
       <c r="W19" t="n">
-        <v>865.533770929466</v>
+        <v>764.4147211339757</v>
       </c>
       <c r="X19" t="n">
-        <v>658.650206515159</v>
+        <v>741.1704223228086</v>
       </c>
       <c r="Y19" t="n">
-        <v>465.3748056299332</v>
+        <v>741.1704223228086</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>804.342148606198</v>
       </c>
       <c r="G20" t="n">
-        <v>427.0741622250395</v>
+        <v>427.0741622250398</v>
       </c>
       <c r="H20" t="n">
         <v>147.6259625787671</v>
@@ -5750,28 +5750,28 @@
         <v>92.73449762184991</v>
       </c>
       <c r="J20" t="n">
-        <v>346.9199690896042</v>
+        <v>321.9691657197333</v>
       </c>
       <c r="K20" t="n">
-        <v>885.0794701986438</v>
+        <v>860.1286668287728</v>
       </c>
       <c r="L20" t="n">
-        <v>1597.670870010882</v>
+        <v>1572.720066641011</v>
       </c>
       <c r="M20" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.170477641254</v>
+        <v>3102.219674271383</v>
       </c>
       <c r="O20" t="n">
-        <v>3770.801334058359</v>
+        <v>3745.850530688488</v>
       </c>
       <c r="P20" t="n">
-        <v>4299.95803197751</v>
+        <v>4275.007228607639</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.119038772802</v>
+        <v>4596.168235402931</v>
       </c>
       <c r="R20" t="n">
         <v>4636.724881092496</v>
@@ -5835,22 +5835,22 @@
         <v>741.3536114497819</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.44178336907</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="M21" t="n">
-        <v>2139.22369347235</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.22369347235</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.22369347235</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.22369347235</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R21" t="n">
         <v>2139.22369347235</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>465.3748056299338</v>
+        <v>486.3048231511044</v>
       </c>
       <c r="C22" t="n">
-        <v>465.3748056299338</v>
+        <v>346.6717484388306</v>
       </c>
       <c r="D22" t="n">
-        <v>465.3748056299338</v>
+        <v>346.6717484388306</v>
       </c>
       <c r="E22" t="n">
-        <v>465.3748056299338</v>
+        <v>346.6717484388306</v>
       </c>
       <c r="F22" t="n">
-        <v>431.5574966084948</v>
+        <v>346.6717484388306</v>
       </c>
       <c r="G22" t="n">
-        <v>295.7674032600478</v>
+        <v>210.8816550903836</v>
       </c>
       <c r="H22" t="n">
-        <v>177.6202457915141</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I22" t="n">
         <v>92.73449762184991</v>
       </c>
       <c r="J22" t="n">
-        <v>137.6512848283225</v>
+        <v>137.6512848283223</v>
       </c>
       <c r="K22" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L22" t="n">
-        <v>613.7691884331451</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M22" t="n">
-        <v>933.8674826749004</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N22" t="n">
         <v>1245.540502870413</v>
@@ -5932,10 +5932,10 @@
         <v>1868.807296652796</v>
       </c>
       <c r="R22" t="n">
-        <v>1814.994876054205</v>
+        <v>1814.994876054206</v>
       </c>
       <c r="S22" t="n">
-        <v>1814.994876054205</v>
+        <v>1814.994876054206</v>
       </c>
       <c r="T22" t="n">
         <v>1606.906434756917</v>
@@ -5944,16 +5944,16 @@
         <v>1355.568585029051</v>
       </c>
       <c r="V22" t="n">
-        <v>1113.143137694582</v>
+        <v>1290.312563883788</v>
       </c>
       <c r="W22" t="n">
-        <v>865.5337709294664</v>
+        <v>1042.703197118672</v>
       </c>
       <c r="X22" t="n">
-        <v>658.6502065151594</v>
+        <v>835.8196327043648</v>
       </c>
       <c r="Y22" t="n">
-        <v>465.3748056299338</v>
+        <v>642.5442318191392</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C23" t="n">
         <v>1949.795812864524</v>
@@ -5972,16 +5972,16 @@
         <v>1576.792180683594</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F23" t="n">
-        <v>804.342148606198</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G23" t="n">
-        <v>427.0741622250397</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H23" t="n">
-        <v>147.6259625787672</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I23" t="n">
         <v>92.73449762184991</v>
@@ -5996,7 +5996,7 @@
         <v>1597.670870010882</v>
       </c>
       <c r="M23" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N23" t="n">
         <v>3102.219674271383</v>
@@ -6026,13 +6026,13 @@
         <v>3798.180466333484</v>
       </c>
       <c r="W23" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X23" t="n">
         <v>3076.697363089625</v>
       </c>
       <c r="Y23" t="n">
-        <v>2707.220987763725</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>92.73449762184991</v>
       </c>
       <c r="K24" t="n">
-        <v>92.73449762184991</v>
+        <v>548.5407538871486</v>
       </c>
       <c r="L24" t="n">
-        <v>753.8226695411381</v>
+        <v>548.5407538871486</v>
       </c>
       <c r="M24" t="n">
-        <v>753.8226695411381</v>
+        <v>1391.517834581715</v>
       </c>
       <c r="N24" t="n">
-        <v>753.8226695411381</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="O24" t="n">
-        <v>1457.779760087032</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="P24" t="n">
-        <v>1759.819709425737</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="Q24" t="n">
-        <v>2109.66417410972</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R24" t="n">
         <v>2139.22369347235</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>362.9478175604892</v>
+        <v>716.7126553577998</v>
       </c>
       <c r="C25" t="n">
-        <v>223.3147428482154</v>
+        <v>716.7126553577998</v>
       </c>
       <c r="D25" t="n">
-        <v>223.3147428482154</v>
+        <v>694.1788421775649</v>
       </c>
       <c r="E25" t="n">
-        <v>223.3147428482154</v>
+        <v>564.728324771894</v>
       </c>
       <c r="F25" t="n">
-        <v>210.8816550903837</v>
+        <v>431.5574966084948</v>
       </c>
       <c r="G25" t="n">
-        <v>210.8816550903837</v>
+        <v>295.7674032600479</v>
       </c>
       <c r="H25" t="n">
-        <v>92.73449762184991</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="I25" t="n">
         <v>92.73449762184991</v>
@@ -6154,10 +6154,10 @@
         <v>613.769188433145</v>
       </c>
       <c r="M25" t="n">
-        <v>933.8674826749002</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N25" t="n">
-        <v>1245.540502870412</v>
+        <v>1245.540502870413</v>
       </c>
       <c r="O25" t="n">
         <v>1535.935350998149</v>
@@ -6169,28 +6169,28 @@
         <v>1868.807296652796</v>
       </c>
       <c r="R25" t="n">
-        <v>1868.807296652796</v>
+        <v>1814.994876054205</v>
       </c>
       <c r="S25" t="n">
-        <v>1868.807296652796</v>
+        <v>1814.994876054205</v>
       </c>
       <c r="T25" t="n">
-        <v>1660.718855355508</v>
+        <v>1606.906434756917</v>
       </c>
       <c r="U25" t="n">
-        <v>1409.381005627641</v>
+        <v>1606.906434756917</v>
       </c>
       <c r="V25" t="n">
-        <v>1166.955558293173</v>
+        <v>1364.480987422449</v>
       </c>
       <c r="W25" t="n">
-        <v>919.3461915280567</v>
+        <v>1116.871620657333</v>
       </c>
       <c r="X25" t="n">
-        <v>712.4626271137497</v>
+        <v>909.9880562430255</v>
       </c>
       <c r="Y25" t="n">
-        <v>519.187226228524</v>
+        <v>716.7126553577998</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
         <v>1960.285334281245</v>
@@ -6209,13 +6209,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6251,7 +6251,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
         <v>4364.291146941468</v>
@@ -6303,22 +6303,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.6932270815131</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="C28" t="n">
-        <v>781.6932270815131</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D28" t="n">
-        <v>651.995493239108</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E28" t="n">
-        <v>520.8815889421123</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F28" t="n">
-        <v>386.0473738873885</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6415,19 +6415,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1434.451719820136</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.451719820136</v>
+        <v>937.3616489751519</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.178966163695</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X28" t="n">
-        <v>976.6320148580636</v>
+        <v>479.5419440130793</v>
       </c>
       <c r="Y28" t="n">
-        <v>781.6932270815131</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489455</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6482,31 +6482,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
         <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6537,25 +6537,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.0568573512421</v>
+        <v>431.4489218235261</v>
       </c>
       <c r="C31" t="n">
-        <v>437.0568573512421</v>
+        <v>431.4489218235261</v>
       </c>
       <c r="D31" t="n">
-        <v>437.0568573512421</v>
+        <v>301.7511879811209</v>
       </c>
       <c r="E31" t="n">
-        <v>437.0568573512421</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512421</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G31" t="n">
         <v>299.6033771114703</v>
@@ -6616,25 +6616,25 @@
         <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049082</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362209</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253562</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749241</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294155</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294155</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1591.046577105542</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1338.045340486351</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V31" t="n">
-        <v>1093.956506260557</v>
+        <v>992.8374564650678</v>
       </c>
       <c r="W31" t="n">
-        <v>844.6837526041165</v>
+        <v>992.8374564650678</v>
       </c>
       <c r="X31" t="n">
-        <v>636.1368012984848</v>
+        <v>784.2905051594361</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.1980135219343</v>
+        <v>589.3517173828855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2152.290461421847</v>
+        <v>2250.244679227935</v>
       </c>
       <c r="C32" t="n">
-        <v>1807.502646485065</v>
+        <v>1905.456864291153</v>
       </c>
       <c r="D32" t="n">
-        <v>1468.375492328073</v>
+        <v>1566.329710134161</v>
       </c>
       <c r="E32" t="n">
-        <v>1119.372052594918</v>
+        <v>1217.326270401005</v>
       </c>
       <c r="F32" t="n">
-        <v>763.678416298553</v>
+        <v>861.6326341046406</v>
       </c>
       <c r="G32" t="n">
-        <v>420.2869079413328</v>
+        <v>485.6236836912803</v>
       </c>
       <c r="H32" t="n">
-        <v>109.3784105690508</v>
+        <v>174.7151863189984</v>
       </c>
       <c r="I32" t="n">
-        <v>88.36342363607157</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5488951038259</v>
+        <v>342.5488951038258</v>
       </c>
       <c r="K32" t="n">
         <v>880.7083962128654</v>
@@ -6710,40 +6710,40 @@
         <v>2369.618387016857</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.665974982465</v>
+        <v>3122.799403655476</v>
       </c>
       <c r="O32" t="n">
-        <v>3527.29683139957</v>
+        <v>3766.43026007258</v>
       </c>
       <c r="P32" t="n">
-        <v>4056.453529318721</v>
+        <v>4295.586957991732</v>
       </c>
       <c r="Q32" t="n">
-        <v>4377.614536114013</v>
+        <v>4418.171181803576</v>
       </c>
       <c r="R32" t="n">
-        <v>4418.171181803578</v>
+        <v>4418.171181803576</v>
       </c>
       <c r="S32" t="n">
-        <v>4282.890106597679</v>
+        <v>4348.226882347625</v>
       </c>
       <c r="T32" t="n">
-        <v>4060.683622544538</v>
+        <v>4126.020398294484</v>
       </c>
       <c r="U32" t="n">
-        <v>3868.959906553996</v>
+        <v>3934.296682303942</v>
       </c>
       <c r="V32" t="n">
-        <v>3584.459127640424</v>
+        <v>3649.79590339037</v>
       </c>
       <c r="W32" t="n">
-        <v>3266.03560252554</v>
+        <v>3331.372378275486</v>
       </c>
       <c r="X32" t="n">
-        <v>2865.392204694493</v>
+        <v>2996.065756194387</v>
       </c>
       <c r="Y32" t="n">
-        <v>2497.174865336389</v>
+        <v>2595.129083142477</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>395.809220483272</v>
       </c>
       <c r="F33" t="n">
-        <v>286.8493406657767</v>
+        <v>286.8493406657766</v>
       </c>
       <c r="G33" t="n">
         <v>179.8592279801153</v>
@@ -6774,31 +6774,31 @@
         <v>109.1120150158314</v>
       </c>
       <c r="I33" t="n">
-        <v>88.36342363607157</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="J33" t="n">
-        <v>281.1762811987048</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="K33" t="n">
-        <v>736.9825374640036</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="L33" t="n">
-        <v>1261.194527374954</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="M33" t="n">
-        <v>1261.194527374954</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="N33" t="n">
-        <v>2134.852619486572</v>
+        <v>489.7856524055339</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.852619486572</v>
+        <v>1193.742742951428</v>
       </c>
       <c r="P33" t="n">
-        <v>2134.852619486572</v>
+        <v>1755.448635439958</v>
       </c>
       <c r="Q33" t="n">
-        <v>2134.852619486572</v>
+        <v>2105.293100123942</v>
       </c>
       <c r="R33" t="n">
         <v>2134.852619486572</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>720.3398436875757</v>
+        <v>720.3398436875766</v>
       </c>
       <c r="C34" t="n">
-        <v>614.5832469992388</v>
+        <v>614.5832469992407</v>
       </c>
       <c r="D34" t="n">
-        <v>520.4253780720965</v>
+        <v>520.4253780720985</v>
       </c>
       <c r="E34" t="n">
-        <v>424.8513386903635</v>
+        <v>424.8513386903655</v>
       </c>
       <c r="F34" t="n">
-        <v>325.5569885509024</v>
+        <v>325.5569885509044</v>
       </c>
       <c r="G34" t="n">
-        <v>223.6433732263935</v>
+        <v>223.6433732263952</v>
       </c>
       <c r="H34" t="n">
-        <v>139.3726937817978</v>
+        <v>139.3726937817994</v>
       </c>
       <c r="I34" t="n">
-        <v>88.36342363607157</v>
+        <v>88.36342363607153</v>
       </c>
       <c r="J34" t="n">
         <v>166.4825469538058</v>
       </c>
       <c r="K34" t="n">
-        <v>385.0714485885674</v>
+        <v>385.0714485885675</v>
       </c>
       <c r="L34" t="n">
-        <v>709.0051227811516</v>
+        <v>709.0051227811517</v>
       </c>
       <c r="M34" t="n">
         <v>1062.305753134169</v>
       </c>
       <c r="N34" t="n">
-        <v>1407.181109440942</v>
+        <v>1407.181109440943</v>
       </c>
       <c r="O34" t="n">
         <v>1730.77829367994</v>
@@ -6889,19 +6889,19 @@
         <v>1814.852013338966</v>
       </c>
       <c r="U34" t="n">
-        <v>1597.390641635037</v>
+        <v>1597.390641635038</v>
       </c>
       <c r="V34" t="n">
-        <v>1388.841672324507</v>
+        <v>1388.841672324508</v>
       </c>
       <c r="W34" t="n">
-        <v>1175.108783583329</v>
+        <v>1175.10878358333</v>
       </c>
       <c r="X34" t="n">
-        <v>1002.10169719296</v>
+        <v>1002.101697192961</v>
       </c>
       <c r="Y34" t="n">
-        <v>842.7027743316723</v>
+        <v>842.7027743316733</v>
       </c>
     </row>
     <row r="35">
@@ -6920,49 +6920,49 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F35" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I35" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K35" t="n">
-        <v>874.7091197831526</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L35" t="n">
-        <v>1587.300519595391</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M35" t="n">
-        <v>2363.619110587144</v>
+        <v>2109.43363911939</v>
       </c>
       <c r="N35" t="n">
-        <v>3116.800127225762</v>
+        <v>2862.614655758008</v>
       </c>
       <c r="O35" t="n">
-        <v>3267.889655603491</v>
+        <v>3506.245512175113</v>
       </c>
       <c r="P35" t="n">
-        <v>3797.046353522642</v>
+        <v>4035.402210094265</v>
       </c>
       <c r="Q35" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R35" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T35" t="n">
         <v>3891.393352558789</v>
@@ -6974,10 +6974,10 @@
         <v>3415.168857654675</v>
       </c>
       <c r="W35" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X35" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y35" t="n">
         <v>2425.838813156729</v>
@@ -7014,25 +7014,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J36" t="n">
-        <v>82.36414720635868</v>
+        <v>168.981834177705</v>
       </c>
       <c r="K36" t="n">
-        <v>82.36414720635868</v>
+        <v>624.7880904430037</v>
       </c>
       <c r="L36" t="n">
-        <v>82.36414720635868</v>
+        <v>1285.876262362292</v>
       </c>
       <c r="M36" t="n">
-        <v>925.3412279009253</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.999320012543</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="O36" t="n">
-        <v>1798.999320012543</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P36" t="n">
-        <v>1798.999320012543</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q36" t="n">
         <v>2128.853343056859</v>
@@ -7072,13 +7072,13 @@
         <v>714.3405672578622</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695264</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423841</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606511</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F37" t="n">
         <v>319.5577121211898</v>
@@ -7093,31 +7093,31 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N37" t="n">
         <v>1401.18183301123</v>
       </c>
       <c r="O37" t="n">
-        <v>1724.779017250227</v>
+        <v>1724.779017250228</v>
       </c>
       <c r="P37" t="n">
-        <v>1994.491031412363</v>
+        <v>1994.491031412364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127399</v>
       </c>
       <c r="R37" t="n">
-        <v>2104.119692552745</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S37" t="n">
         <v>1983.064700182603</v>
@@ -7126,7 +7126,7 @@
         <v>1808.852736909253</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.391365205324</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V37" t="n">
         <v>1382.842395894794</v>
@@ -7178,19 +7178,19 @@
         <v>620.5236483153982</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.202545866449</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858203</v>
+        <v>2109.43363911939</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.702153496821</v>
+        <v>2862.614655758008</v>
       </c>
       <c r="O38" t="n">
-        <v>3227.333009913926</v>
+        <v>3506.245512175113</v>
       </c>
       <c r="P38" t="n">
-        <v>3756.489707833077</v>
+        <v>4035.402210094265</v>
       </c>
       <c r="Q38" t="n">
         <v>4077.650714628369</v>
@@ -7214,7 +7214,7 @@
         <v>3096.745332539792</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y38" t="n">
         <v>2425.838813156729</v>
@@ -7260,16 +7260,16 @@
         <v>1199.258575390946</v>
       </c>
       <c r="M39" t="n">
-        <v>1217.302985884345</v>
+        <v>2042.235656085512</v>
       </c>
       <c r="N39" t="n">
-        <v>1217.302985884345</v>
+        <v>2042.235656085512</v>
       </c>
       <c r="O39" t="n">
-        <v>1217.302985884345</v>
+        <v>2042.235656085512</v>
       </c>
       <c r="P39" t="n">
-        <v>1779.008878372875</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q39" t="n">
         <v>2128.853343056859</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578618</v>
+        <v>714.3405672578617</v>
       </c>
       <c r="C40" t="n">
         <v>608.5839705695259</v>
@@ -7318,10 +7318,10 @@
         <v>418.8520622606507</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H40" t="n">
         <v>133.3734173520849</v>
@@ -7336,10 +7336,10 @@
         <v>379.0721721588545</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M40" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N40" t="n">
         <v>1401.181833011229</v>
@@ -7363,7 +7363,7 @@
         <v>1808.852736909252</v>
       </c>
       <c r="U40" t="n">
-        <v>1591.391365205324</v>
+        <v>1591.391365205323</v>
       </c>
       <c r="V40" t="n">
         <v>1382.842395894793</v>
@@ -7372,10 +7372,10 @@
         <v>1169.109507153615</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632463</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019586</v>
+        <v>836.7034979019584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2080.954409242188</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C41" t="n">
         <v>1736.166594305405</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F41" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H41" t="n">
-        <v>103.379134139338</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I41" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J41" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K41" t="n">
-        <v>874.7091197831526</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L41" t="n">
-        <v>1587.300519595391</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M41" t="n">
-        <v>2363.619110587144</v>
+        <v>2109.43363911939</v>
       </c>
       <c r="N41" t="n">
-        <v>2904.863160292114</v>
+        <v>2862.614655758008</v>
       </c>
       <c r="O41" t="n">
-        <v>3548.494016709219</v>
+        <v>3506.245512175113</v>
       </c>
       <c r="P41" t="n">
-        <v>4077.65071462837</v>
+        <v>4035.402210094265</v>
       </c>
       <c r="Q41" t="n">
-        <v>4077.65071462837</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R41" t="n">
-        <v>4118.207360317935</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T41" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U41" t="n">
         <v>3699.669636568247</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W41" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X41" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y41" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I42" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>168.981834177705</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K42" t="n">
-        <v>624.7880904430037</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L42" t="n">
-        <v>1285.876262362292</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M42" t="n">
-        <v>2128.853343056859</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="N42" t="n">
-        <v>2128.853343056859</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="O42" t="n">
         <v>2128.853343056859</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578619</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695259</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423835</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606506</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I43" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
         <v>160.4832705240927</v>
@@ -7579,7 +7579,7 @@
         <v>1056.306476704455</v>
       </c>
       <c r="N43" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O43" t="n">
         <v>1724.779017250227</v>
@@ -7609,10 +7609,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="44">
@@ -7631,40 +7631,40 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188924</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616722</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I44" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J44" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K44" t="n">
-        <v>874.7091197831526</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.363552661741</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M44" t="n">
-        <v>2151.682143653495</v>
+        <v>2109.43363911939</v>
       </c>
       <c r="N44" t="n">
-        <v>2904.863160292113</v>
+        <v>2862.614655758008</v>
       </c>
       <c r="O44" t="n">
-        <v>3548.494016709218</v>
+        <v>3506.245512175113</v>
       </c>
       <c r="P44" t="n">
-        <v>4077.650714628369</v>
+        <v>4035.402210094265</v>
       </c>
       <c r="Q44" t="n">
         <v>4077.650714628369</v>
@@ -7673,7 +7673,7 @@
         <v>4118.207360317934</v>
       </c>
       <c r="S44" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T44" t="n">
         <v>3891.393352558789</v>
@@ -7688,7 +7688,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7731,13 +7731,13 @@
         <v>730.9832610342906</v>
       </c>
       <c r="L45" t="n">
-        <v>1187.743466521715</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="M45" t="n">
-        <v>1187.743466521715</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="N45" t="n">
-        <v>1187.743466521715</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="O45" t="n">
         <v>1187.743466521715</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.3405672578618</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C46" t="n">
-        <v>608.5839705695259</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D46" t="n">
-        <v>514.4261016423836</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8520622606507</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G46" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I46" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240926</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588543</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514383</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M46" t="n">
         <v>1056.306476704455</v>
@@ -7825,13 +7825,13 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2124.055635127397</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R46" t="n">
-        <v>2104.119692552744</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.064700182602</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T46" t="n">
         <v>1808.852736909252</v>
@@ -7849,7 +7849,7 @@
         <v>996.1024207632462</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019586</v>
+        <v>836.7034979019591</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>276.6739764291409</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>142.896264461078</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8061,25 +8061,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8216,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>531.5678416466801</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5455427509801</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>554.3503691451801</v>
       </c>
       <c r="N5" t="n">
-        <v>553.9724354447545</v>
+        <v>553.9724354447541</v>
       </c>
       <c r="O5" t="n">
-        <v>554.2499203139183</v>
+        <v>554.2499203139179</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>536.0808152543467</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8298,25 +8298,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>274.5771980577383</v>
+        <v>517.1746684989837</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>518.6244284265521</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>301.514168006931</v>
       </c>
       <c r="O6" t="n">
-        <v>518.8116236881352</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>515.319779690939</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,19 +8453,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8532,25 +8532,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>332.4660540393959</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8702,7 +8702,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>718.1191221381405</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8711,7 +8711,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>103.0756199053232</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747689</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>527.9363279870927</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8790,7 +8790,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>389.2360300813957</v>
       </c>
       <c r="R14" t="n">
-        <v>103.0756199053232</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>75.79096100447774</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9027,7 +9027,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>103.0756199053232</v>
+        <v>103.0756199053241</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4087459755387</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9258,7 +9258,7 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>304.8737611291497</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9422,7 +9422,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>103.0756199053232</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>801.7884353578922</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367927</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>852.2475856912706</v>
       </c>
       <c r="N23" t="n">
-        <v>828.4983647654545</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
@@ -9717,28 +9717,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>808.4518367176235</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>359.3504929206868</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10197,16 +10197,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10358,7 +10358,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
-        <v>612.1522786006672</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
@@ -10367,10 +10367,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>213.8562526939448</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>585.6215843269604</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507828</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10598,16 +10598,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
-        <v>245.8054608558115</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>132.7090615043082</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10683,7 +10683,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>389.8785003677836</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10826,7 +10826,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>533.5448905386536</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10841,7 +10841,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>132.7090615043082</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10908,7 +10908,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>75.79096100447751</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10917,10 +10917,10 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>141.7522481051737</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11069,7 +11069,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>639.6234520747701</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,7 +11078,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>132.7090615043082</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,22 +11136,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>138.86185190237</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>745.891489178132</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>601.1969464250552</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11315,7 +11315,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>132.7090615043082</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11379,7 +11379,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476415</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11388,7 +11388,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367925</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.6770145813545</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.2367439651512</v>
       </c>
       <c r="D13" t="n">
         <v>126.7540034815696</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>79.74313833874703</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V13" t="n">
-        <v>240.0011928611238</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>245.1332730974649</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.00042987885755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.6770145813545</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>126.7540034815696</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>24.71314679285459</v>
       </c>
       <c r="F16" t="n">
         <v>131.8391198817652</v>
       </c>
       <c r="G16" t="n">
-        <v>133.3137618724751</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>116.9656858938484</v>
       </c>
       <c r="I16" t="n">
-        <v>84.03689068796763</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.27429639260486</v>
+        <v>53.27429639260489</v>
       </c>
       <c r="S16" t="n">
-        <v>153.3821556901393</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.3426468763735</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.83897350026818</v>
+        <v>154.6770145813545</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7540034815696</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.4321924149625</v>
+        <v>134.4321924149626</v>
       </c>
       <c r="H19" t="n">
-        <v>116.9656858938484</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.03689068796763</v>
+        <v>84.0368906879677</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>53.27429639260494</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3821556901393</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>181.8028729471088</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.3426468763735</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.6770145813544</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.2367439651511</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.7540034815695</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E22" t="n">
         <v>128.1560122316142</v>
       </c>
       <c r="F22" t="n">
-        <v>98.3599839505403</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.03689068796758</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>175.397731927313</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D25" t="n">
-        <v>126.7540034815696</v>
+        <v>104.445528433137</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>119.5303630015118</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.4321924149625</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>84.03689068796761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.27429639260485</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.3821556901393</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>102.9568490806927</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>50.49938862921505</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2240229947806</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>127.6764324930715</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711382.4889707459</v>
+        <v>711382.4889707461</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711382.4889707458</v>
+        <v>711382.4889707459</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710322.4714154148</v>
+        <v>710322.4714154149</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710322.4714154149</v>
+        <v>710322.4714154148</v>
       </c>
     </row>
     <row r="12">
@@ -26317,16 +26317,16 @@
         <v>407205.9825811424</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="E2" t="n">
-        <v>395212.4938726375</v>
+        <v>395212.4938726373</v>
       </c>
       <c r="F2" t="n">
-        <v>395212.4938726375</v>
+        <v>395212.4938726371</v>
       </c>
       <c r="G2" t="n">
-        <v>395212.4938726373</v>
+        <v>395212.4938726371</v>
       </c>
       <c r="H2" t="n">
         <v>395212.4938726375</v>
@@ -26338,13 +26338,13 @@
         <v>394623.5952307865</v>
       </c>
       <c r="K2" t="n">
-        <v>394623.5952307865</v>
+        <v>394623.5952307866</v>
       </c>
       <c r="L2" t="n">
-        <v>407205.9825811427</v>
+        <v>407205.9825811429</v>
       </c>
       <c r="M2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811419</v>
       </c>
       <c r="N2" t="n">
         <v>407205.9825811426</v>
@@ -26353,7 +26353,7 @@
         <v>407205.9825811422</v>
       </c>
       <c r="P2" t="n">
-        <v>407205.9825811421</v>
+        <v>407205.9825811422</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>130749.1700082319</v>
       </c>
       <c r="C3" t="n">
-        <v>22908.09103294561</v>
+        <v>22908.09103294545</v>
       </c>
       <c r="D3" t="n">
-        <v>18949.49411956561</v>
+        <v>18949.49411956576</v>
       </c>
       <c r="E3" t="n">
         <v>215145.8694717669</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>127345.6515709613</v>
+        <v>127345.6515709612</v>
       </c>
       <c r="K3" t="n">
-        <v>18249.28669934219</v>
+        <v>18249.28669934201</v>
       </c>
       <c r="L3" t="n">
-        <v>28147.57301288812</v>
+        <v>28147.57301288811</v>
       </c>
       <c r="M3" t="n">
-        <v>140084.2207840746</v>
+        <v>140084.2207840748</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23599.15338107036</v>
+        <v>23599.15338107032</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192244.5319440824</v>
+        <v>192244.5319440825</v>
       </c>
       <c r="C4" t="n">
-        <v>173301.5826013437</v>
+        <v>173301.5826013439</v>
       </c>
       <c r="D4" t="n">
-        <v>157004.4771675523</v>
+        <v>157004.4771675524</v>
       </c>
       <c r="E4" t="n">
-        <v>35075.88691860678</v>
+        <v>35075.88691860675</v>
       </c>
       <c r="F4" t="n">
-        <v>35075.88691860677</v>
+        <v>35075.88691860675</v>
       </c>
       <c r="G4" t="n">
-        <v>35075.88691860678</v>
+        <v>35075.8869186067</v>
       </c>
       <c r="H4" t="n">
-        <v>35075.88691860683</v>
+        <v>35075.88691860682</v>
       </c>
       <c r="I4" t="n">
-        <v>35075.8869186068</v>
+        <v>35075.88691860682</v>
       </c>
       <c r="J4" t="n">
         <v>33424.5725436775</v>
       </c>
       <c r="K4" t="n">
-        <v>33424.57254367752</v>
+        <v>33424.57254367754</v>
       </c>
       <c r="L4" t="n">
-        <v>55635.20876304766</v>
+        <v>55635.20876304775</v>
       </c>
       <c r="M4" t="n">
         <v>68706.49650478255</v>
@@ -26454,10 +26454,10 @@
         <v>68706.49650478255</v>
       </c>
       <c r="O4" t="n">
-        <v>68706.49650478258</v>
+        <v>68706.49650478257</v>
       </c>
       <c r="P4" t="n">
-        <v>68706.49650478261</v>
+        <v>68706.49650478254</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>61660.05679703862</v>
+        <v>61660.05679703859</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
@@ -26479,10 +26479,10 @@
         <v>73096.60560443855</v>
       </c>
       <c r="F5" t="n">
-        <v>73096.60560443855</v>
+        <v>73096.60560443856</v>
       </c>
       <c r="G5" t="n">
-        <v>73096.60560443855</v>
+        <v>73096.60560443856</v>
       </c>
       <c r="H5" t="n">
         <v>73096.60560443855</v>
@@ -26497,7 +26497,7 @@
         <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>72594.0713899315</v>
+        <v>72594.07138993149</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26506,7 +26506,7 @@
         <v>68034.62130334972</v>
       </c>
       <c r="O5" t="n">
-        <v>68034.62130334973</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="P5" t="n">
         <v>68034.62130334972</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26863.39162001497</v>
+        <v>26863.39162001491</v>
       </c>
       <c r="C6" t="n">
         <v>149336.2521498145</v>
       </c>
       <c r="D6" t="n">
-        <v>165882.9462155269</v>
+        <v>165882.9462155266</v>
       </c>
       <c r="E6" t="n">
-        <v>71894.13187782528</v>
+        <v>71846.15792299101</v>
       </c>
       <c r="F6" t="n">
-        <v>287040.0013495921</v>
+        <v>286992.0273947577</v>
       </c>
       <c r="G6" t="n">
-        <v>287040.001349592</v>
+        <v>286992.0273947578</v>
       </c>
       <c r="H6" t="n">
-        <v>287040.0013495921</v>
+        <v>286992.027394758</v>
       </c>
       <c r="I6" t="n">
-        <v>287040.0013495917</v>
+        <v>286992.0273947576</v>
       </c>
       <c r="J6" t="n">
-        <v>160508.2143392829</v>
+        <v>160457.8847898815</v>
       </c>
       <c r="K6" t="n">
-        <v>269604.5792109019</v>
+        <v>269554.2496615008</v>
       </c>
       <c r="L6" t="n">
-        <v>250829.1294152754</v>
+        <v>250829.1294152755</v>
       </c>
       <c r="M6" t="n">
-        <v>130380.6439889355</v>
+        <v>130380.6439889349</v>
       </c>
       <c r="N6" t="n">
-        <v>270464.8647730104</v>
+        <v>270464.8647730103</v>
       </c>
       <c r="O6" t="n">
-        <v>246865.7113919395</v>
+        <v>246865.7113919396</v>
       </c>
       <c r="P6" t="n">
-        <v>270464.8647730098</v>
+        <v>270464.86477301</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="F2" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="G2" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="H2" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I2" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="M2" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="N2" t="n">
         <v>64.68340799244815</v>
       </c>
       <c r="O2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="3">
@@ -26790,7 +26790,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>461.0601446881352</v>
+        <v>461.0601446881347</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1104.542795450895</v>
+        <v>1104.542795450894</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>35.18446626611015</v>
+        <v>35.18446626611014</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633795</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>70.90736493791829</v>
+        <v>70.90736493791779</v>
       </c>
       <c r="D4" t="n">
-        <v>61.00342568189038</v>
+        <v>61.00342568189087</v>
       </c>
       <c r="E4" t="n">
-        <v>637.1176499030984</v>
+        <v>637.1176499030985</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>396.5177806098779</v>
       </c>
       <c r="K4" t="n">
-        <v>70.90736493791843</v>
+        <v>70.90736493791765</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>562.1266945316872</v>
+        <v>562.126694531688</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>70.90736493791829</v>
+        <v>70.90736493791779</v>
       </c>
       <c r="L4" t="n">
-        <v>61.00342568189038</v>
+        <v>61.00342568189087</v>
       </c>
       <c r="M4" t="n">
-        <v>637.1176499030984</v>
+        <v>637.1176499030985</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27430,19 +27430,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>48.88029542250797</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>6.484184102520089</v>
+        <v>80.570472508536</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>198.4566718856263</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>40.64873184581811</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>104.498006608396</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>286.7647404430615</v>
+        <v>220.6001219656966</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>129.8319845994477</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>104.086973847736</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>20.72838715000157</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27780,19 +27780,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>338.8825310352173</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.9121845766271</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="C11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="D11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="E11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="F11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="G11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="H11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="I11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="T11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="U11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="V11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="W11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="X11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="C13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="D13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="E13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="F13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="G13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="H13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="I13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="J13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="K13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="L13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="M13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="N13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="O13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="P13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="R13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="S13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="T13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="U13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="V13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="W13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="X13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="C14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="D14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="E14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="F14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="G14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="H14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="I14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="T14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="U14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="V14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="W14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="X14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="C16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="D16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="E16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="F16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="G16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="H16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="I16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="J16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="K16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="L16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="M16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="N16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="O16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="P16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="R16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="S16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="T16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="U16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="V16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="W16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="X16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874946</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="C17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="D17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="E17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="F17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="G17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="H17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="I17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="T17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="U17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="V17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="W17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="X17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="C19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="D19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="E19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="F19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="G19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="H19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="I19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="J19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="K19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="L19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="M19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="N19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="O19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="P19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="R19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="S19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="T19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="U19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="V19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="W19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="X19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.14569474874948</v>
+        <v>31.1456947487494</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="C20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="D20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="E20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="G20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="H20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="T20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="U20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="V20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="W20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="X20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="C22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="D22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="E22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="G22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="H22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="K22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="L22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="M22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="N22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="O22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="P22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="R22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="S22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="T22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="U22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="V22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="W22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="X22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874952</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="C23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="D23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="E23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="G23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="H23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="T23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="U23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="V23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="W23" t="n">
-        <v>31.14569474874986</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="X23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="C25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="D25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="E25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="G25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="H25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="K25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="L25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="M25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="N25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="O25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="P25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="R25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="S25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="T25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="U25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="V25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="W25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="X25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.14569474874949</v>
+        <v>31.14569474874952</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29539,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244815</v>
+        <v>32.3921403568695</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244815</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.39214035686854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244821</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="K37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="L37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="M37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="N37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244885</v>
       </c>
       <c r="O37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="P37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="R37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="S37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="38">
@@ -30286,10 +30286,10 @@
         <v>64.68340799244815</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244697</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.6834079924468</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="K46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="L46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="M46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="N46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="O46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="P46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="R46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="S46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="O2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M2" t="n">
-        <v>183.3837519720954</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34781,25 +34781,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>442.431451973463</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.0601446881352</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.0601446881347</v>
       </c>
       <c r="N5" t="n">
-        <v>461.0601446881352</v>
+        <v>461.0601446881347</v>
       </c>
       <c r="O5" t="n">
-        <v>461.0601446881352</v>
+        <v>461.0601446881347</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>442.4314519734625</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,25 +35018,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>218.4626742468892</v>
+        <v>461.0601446881347</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.0601446881347</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>248.320774613181</v>
       </c>
       <c r="O6" t="n">
-        <v>461.0601446881352</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.0601446881352</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>276.3515302285468</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35422,7 +35422,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>624.9293465123574</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35431,7 +35431,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>15.76347709059969</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363515</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>474.7429345933427</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.37049212775001</v>
+        <v>45.37049212774998</v>
       </c>
       <c r="K13" t="n">
         <v>187.2591570944444</v>
@@ -35586,7 +35586,7 @@
         <v>238.8986646978529</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.33562384219476</v>
+        <v>97.33562384219474</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,10 +35665,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>299.2022256822437</v>
       </c>
       <c r="R14" t="n">
-        <v>15.76347709059969</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>18.22667726606031</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35747,7 +35747,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.37049212775001</v>
+        <v>45.37049212774998</v>
       </c>
       <c r="K16" t="n">
         <v>187.2591570944444</v>
@@ -35823,7 +35823,7 @@
         <v>238.8986646978529</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.33562384219476</v>
+        <v>97.33562384219474</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>15.76347709059969</v>
+        <v>15.76347709060061</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>176.8444622371213</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.37049212775001</v>
+        <v>45.37049212774993</v>
       </c>
       <c r="K19" t="n">
-        <v>187.2591570944444</v>
+        <v>187.2591570944443</v>
       </c>
       <c r="L19" t="n">
-        <v>293.6680182639622</v>
+        <v>293.6680182639621</v>
       </c>
       <c r="M19" t="n">
         <v>323.3316103452073</v>
@@ -36054,13 +36054,13 @@
         <v>314.8212325207194</v>
       </c>
       <c r="O19" t="n">
-        <v>293.3281294219557</v>
+        <v>293.3281294219556</v>
       </c>
       <c r="P19" t="n">
-        <v>238.8986646978529</v>
+        <v>238.8986646978528</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.33562384219476</v>
+        <v>97.33562384219469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>231.5501697958418</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36142,7 +36142,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>15.76347709059969</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>744.2241516194748</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.37049212775007</v>
+        <v>45.37049212775005</v>
       </c>
       <c r="K22" t="n">
-        <v>187.2591570944445</v>
+        <v>187.2591570944444</v>
       </c>
       <c r="L22" t="n">
         <v>293.6680182639622</v>
@@ -36294,10 +36294,10 @@
         <v>293.3281294219557</v>
       </c>
       <c r="P22" t="n">
-        <v>238.898664697853</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.33562384219483</v>
+        <v>97.33562384219481</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>758.9573612342251</v>
       </c>
       <c r="N23" t="n">
-        <v>735.5860740088352</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
         <v>650.1321781990958</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>755.2584433238735</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>305.0908579178831</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.37049212775001</v>
+        <v>45.37049212775005</v>
       </c>
       <c r="K25" t="n">
         <v>187.2591570944444</v>
@@ -36522,10 +36522,10 @@
         <v>293.6680182639622</v>
       </c>
       <c r="M25" t="n">
-        <v>323.3316103452073</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N25" t="n">
-        <v>314.8212325207194</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O25" t="n">
         <v>293.3281294219557</v>
@@ -36534,7 +36534,7 @@
         <v>238.8986646978529</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.33562384219478</v>
+        <v>97.33562384219481</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M29" t="n">
         <v>784.1601929209636</v>
@@ -36850,7 +36850,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689823</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36917,16 +36917,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -36996,19 +36996,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
-        <v>519.2399878440478</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
         <v>650.1321781990958</v>
@@ -37087,10 +37087,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>123.8224482947927</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>529.5070605161113</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144867</v>
+        <v>78.90820537144873</v>
       </c>
       <c r="K34" t="n">
-        <v>220.7968703381431</v>
+        <v>220.7968703381432</v>
       </c>
       <c r="L34" t="n">
         <v>327.2057315076609</v>
       </c>
       <c r="M34" t="n">
-        <v>356.869323588906</v>
+        <v>356.8693235889061</v>
       </c>
       <c r="N34" t="n">
-        <v>348.3589457644181</v>
+        <v>348.3589457644182</v>
       </c>
       <c r="O34" t="n">
         <v>326.8658426656544</v>
       </c>
       <c r="P34" t="n">
-        <v>272.4363779415515</v>
+        <v>272.4363779415516</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.8733370858934</v>
+        <v>130.8733370858935</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37318,16 +37318,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
-        <v>152.6156852300284</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>42.6752571051561</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.49261310237004</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>220.796870338143</v>
       </c>
       <c r="L37" t="n">
-        <v>327.2057315076608</v>
+        <v>327.2057315076607</v>
       </c>
       <c r="M37" t="n">
-        <v>356.869323588906</v>
+        <v>356.8693235889059</v>
       </c>
       <c r="N37" t="n">
-        <v>348.3589457644181</v>
+        <v>348.3589457644188</v>
       </c>
       <c r="O37" t="n">
         <v>326.8658426656543</v>
@@ -37546,7 +37546,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>438.0594924758088</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37561,7 +37561,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>42.6752571051561</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37628,7 +37628,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>18.22667726606008</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>87.49261310237</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37789,7 +37789,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>546.7111613181507</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,7 +37798,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>42.6752571051561</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.49261310237002</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>688.3272054397146</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>505.7115483622104</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38035,7 +38035,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>42.6752571051561</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38099,16 +38099,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>461.3739449367924</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.90820537144867</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K46" t="n">
-        <v>220.7968703381431</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L46" t="n">
-        <v>327.2057315076609</v>
+        <v>327.2057315076607</v>
       </c>
       <c r="M46" t="n">
-        <v>356.869323588906</v>
+        <v>356.8693235889059</v>
       </c>
       <c r="N46" t="n">
         <v>348.3589457644181</v>
       </c>
       <c r="O46" t="n">
-        <v>326.8658426656544</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P46" t="n">
         <v>272.4363779415515</v>
